--- a/src/main/java/com/ecommerce/testDatas/EcommerceAppTestData.xlsx
+++ b/src/main/java/com/ecommerce/testDatas/EcommerceAppTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\EcommerceApp\src\main\java\com\ecommerce\testDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03C136D-C768-4023-A4A7-19ED3FE4D1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFF4906-9AF8-460B-B875-F3172C1A0A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6BC33D5A-74DF-4166-AD2A-5876771AAEC3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>First Name</t>
   </si>
@@ -60,24 +60,12 @@
     <t>Doctor</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Engineer</t>
-  </si>
-  <si>
-    <t>Password513!</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
     <t>male</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>Card Number</t>
   </si>
   <si>
@@ -87,49 +75,46 @@
     <t>000 111 222 333</t>
   </si>
   <si>
-    <t>Scientist</t>
-  </si>
-  <si>
     <t>CVV</t>
   </si>
   <si>
     <t>india</t>
   </si>
   <si>
-    <t>wbskkk</t>
-  </si>
-  <si>
-    <t>jhnhnnn</t>
-  </si>
-  <si>
-    <t>qwejeedssx</t>
-  </si>
-  <si>
-    <t>ssjjdsik</t>
-  </si>
-  <si>
-    <t>abcjjsdhee</t>
-  </si>
-  <si>
-    <t>shsxxddxx</t>
-  </si>
-  <si>
-    <t>ouyy</t>
-  </si>
-  <si>
-    <t>pijnmko0</t>
-  </si>
-  <si>
-    <t>vargheese@yahoo.commm</t>
-  </si>
-  <si>
-    <t>mail@wheels.comm</t>
-  </si>
-  <si>
-    <t>ksistla@wheels.commm</t>
-  </si>
-  <si>
-    <t>bsweeney@wheels.comm</t>
+    <t>Password513@</t>
+  </si>
+  <si>
+    <t>mohammeddd</t>
+  </si>
+  <si>
+    <t>shariqqq</t>
+  </si>
+  <si>
+    <t>mohammedd@gmail.comm</t>
+  </si>
+  <si>
+    <t>mohammedddd</t>
+  </si>
+  <si>
+    <t>shariqqqq</t>
+  </si>
+  <si>
+    <t>mohammedd@gmail.commm</t>
+  </si>
+  <si>
+    <t>moham</t>
+  </si>
+  <si>
+    <t>mohamm</t>
+  </si>
+  <si>
+    <t>shari</t>
+  </si>
+  <si>
+    <t>shar</t>
+  </si>
+  <si>
+    <t>abc@gmail.comm</t>
   </si>
 </sst>
 </file>
@@ -505,7 +490,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -547,117 +532,125 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>9678543298</v>
+        <v>9923764598</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>7654326987</v>
+        <v>9923054598</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>9090870543</v>
+        <v>9923764598</v>
       </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>7670890543</v>
+        <v>9923224598</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A3AE11C9-BFDA-4AAC-8FE2-78994242D379}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{263C9689-94A2-444B-963C-2C74096347C4}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{46E16C30-77A1-472D-AC3D-7C615E0DB29E}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{CCAB1DDA-89CB-47CF-820C-FA2C6296C6F3}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{78ECAF6D-23EB-444E-BACD-BFB43B166899}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{4613CE49-9711-48D3-B864-69A29B8F6E03}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{B53E4CF5-8442-4AFF-8152-0A9D5E76B42A}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{8597BD44-6114-44CF-A3CD-D44C044EB5C8}"/>
+    <hyperlink ref="H3" r:id="rId6" xr:uid="{887462C9-09F6-40D0-869A-C17AB406DA5B}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{5BA261EF-6C77-4552-88B7-77068A5B9662}"/>
+    <hyperlink ref="G4" r:id="rId8" xr:uid="{62C3BF42-5293-455D-BE60-23618C557E4C}"/>
+    <hyperlink ref="H4" r:id="rId9" xr:uid="{43854377-CA75-4E68-AB2E-F672806F78CB}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{A534EB0B-C5DF-441E-96D8-46C73A0416FE}"/>
+    <hyperlink ref="G5" r:id="rId11" xr:uid="{ECD3DE02-3EF3-43D3-BF62-306A19CC3F79}"/>
+    <hyperlink ref="H5" r:id="rId12" xr:uid="{EA6A3F82-2506-4FE0-803D-51BD91D14575}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -677,24 +670,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
